--- a/user_import.xlsx
+++ b/user_import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT_6-master\Сессия 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT6_Iarovikov_Nikita_ISP431\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2280" windowWidth="27165" windowHeight="17055" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4935" yWindow="2280" windowWidth="27165" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="224">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Кол-во на складе</t>
   </si>
   <si>
-    <t>Описание</t>
-  </si>
-  <si>
     <t>Изображение</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
     <t>Сухой корм для щенков DOG CHOW Puppy, ягненок 2.5 кг</t>
   </si>
   <si>
-    <t>discount</t>
-  </si>
-  <si>
     <t>idPost</t>
   </si>
   <si>
@@ -718,6 +712,9 @@
   </si>
   <si>
     <t>Даниэльевна</t>
+  </si>
+  <si>
+    <t>шт.</t>
   </si>
 </sst>
 </file>
@@ -725,7 +722,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -795,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -818,11 +815,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,7 +868,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1237,13 +1248,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>29</v>
@@ -1267,13 +1278,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1297,13 +1308,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1327,13 +1338,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
@@ -1357,13 +1368,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>5</v>
@@ -1387,13 +1398,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
@@ -1417,13 +1428,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
@@ -1447,13 +1458,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>26</v>
@@ -1477,13 +1488,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>23</v>
@@ -1507,19 +1518,27 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1554,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1545,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1553,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1561,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1596,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1587,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1595,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1630,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1621,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1629,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1637,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1645,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1653,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1661,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1669,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1677,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1685,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1693,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1701,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1709,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1717,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1752,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1746,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1754,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1762,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1770,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1778,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1786,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1794,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1802,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1860,839 +1879,1427 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:19" ht="47.25">
+      <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>44693</v>
+      </c>
+      <c r="F2" s="8">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15">
+        <v>44687</v>
+      </c>
+      <c r="H2" s="8">
+        <v>601</v>
+      </c>
+      <c r="I2" s="8">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="8">
+      <c r="K2" s="8">
         <v>15</v>
       </c>
-      <c r="E2" s="15">
+      <c r="L2" s="15">
         <v>44687</v>
       </c>
-      <c r="F2" s="15">
+      <c r="M2" s="15">
         <v>44693</v>
       </c>
-      <c r="G2" s="8">
+      <c r="N2" s="8">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="e">
-        <f>LOOKUP(I2,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O2" s="8" t="e">
+        <f>LOOKUP(P2,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8">
         <v>601</v>
       </c>
-      <c r="K2" s="8">
-        <f>LOOKUP(L2,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="R2" s="8">
+        <f>LOOKUP(S2,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>44693</v>
+      </c>
+      <c r="F3" s="10">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15">
+        <v>44687</v>
+      </c>
+      <c r="H3" s="10">
+        <v>602</v>
+      </c>
+      <c r="I3" s="10">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="10">
+      <c r="K3" s="10">
         <v>15</v>
       </c>
-      <c r="E3" s="15">
+      <c r="L3" s="15">
         <v>44687</v>
       </c>
-      <c r="F3" s="15">
+      <c r="M3" s="15">
         <v>44693</v>
       </c>
-      <c r="G3" s="10">
+      <c r="N3" s="10">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="e">
-        <f>LOOKUP(I3,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O3" s="8" t="e">
+        <f>LOOKUP(P3,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10">
         <v>602</v>
       </c>
-      <c r="K3" s="8">
-        <f>LOOKUP(L3,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="R3" s="8">
+        <f>LOOKUP(S3,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>44695</v>
+      </c>
+      <c r="F4" s="8">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15">
+        <v>44689</v>
+      </c>
+      <c r="H4" s="8">
+        <v>603</v>
+      </c>
+      <c r="I4" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="15">
+      <c r="J4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="10">
+        <v>10</v>
+      </c>
+      <c r="L4" s="15">
         <v>44689</v>
       </c>
-      <c r="F4" s="15">
+      <c r="M4" s="15">
         <v>44695</v>
       </c>
-      <c r="G4" s="8">
+      <c r="N4" s="8">
         <v>22</v>
       </c>
-      <c r="H4" s="8">
-        <f>LOOKUP(I4,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O4" s="8">
+        <f>LOOKUP(P4,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="8">
+      <c r="Q4" s="8">
         <v>603</v>
       </c>
-      <c r="K4" s="8">
-        <f>LOOKUP(L4,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="R4" s="8">
+        <f>LOOKUP(S4,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44695</v>
+      </c>
+      <c r="F5" s="10">
+        <v>24</v>
+      </c>
+      <c r="G5" s="15">
+        <v>44689</v>
+      </c>
+      <c r="H5" s="10">
+        <v>604</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
         <v>44689</v>
       </c>
-      <c r="F5" s="15">
+      <c r="M5" s="15">
         <v>44695</v>
       </c>
-      <c r="G5" s="10">
+      <c r="N5" s="10">
         <v>24</v>
       </c>
-      <c r="H5" s="8" t="e">
-        <f>LOOKUP(I5,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O5" s="8" t="e">
+        <f>LOOKUP(P5,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="10">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="10">
         <v>604</v>
       </c>
-      <c r="K5" s="8">
-        <f>LOOKUP(L5,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="R5" s="8">
+        <f>LOOKUP(S5,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>44697</v>
+      </c>
+      <c r="F6" s="8">
+        <v>25</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44691</v>
+      </c>
+      <c r="H6" s="8">
+        <v>605</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
         <v>44691</v>
       </c>
-      <c r="F6" s="15">
+      <c r="M6" s="15">
         <v>44697</v>
       </c>
-      <c r="G6" s="8">
+      <c r="N6" s="8">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="e">
-        <f>LOOKUP(I6,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O6" s="8" t="e">
+        <f>LOOKUP(P6,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="8">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="8">
         <v>605</v>
       </c>
-      <c r="K6" s="8">
-        <f>LOOKUP(L6,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="R6" s="8">
+        <f>LOOKUP(S6,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>44698</v>
+      </c>
+      <c r="F7" s="10">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15">
+        <v>44692</v>
+      </c>
+      <c r="H7" s="10">
+        <v>606</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
         <v>44692</v>
       </c>
-      <c r="F7" s="15">
+      <c r="M7" s="15">
         <v>44698</v>
       </c>
-      <c r="G7" s="10">
+      <c r="N7" s="10">
         <v>28</v>
       </c>
-      <c r="H7" s="8">
-        <f>LOOKUP(I7,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O7" s="8">
+        <f>LOOKUP(P7,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>7</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10">
+      <c r="Q7" s="10">
         <v>606</v>
       </c>
-      <c r="K7" s="8">
-        <f>LOOKUP(L7,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="R7" s="8">
+        <f>LOOKUP(S7,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>44699</v>
+      </c>
+      <c r="F8" s="8">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15">
+        <v>44693</v>
+      </c>
+      <c r="H8" s="8">
+        <v>607</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="K8" s="10">
+        <v>2</v>
+      </c>
+      <c r="L8" s="15">
         <v>44693</v>
       </c>
-      <c r="F8" s="15">
+      <c r="M8" s="15">
         <v>44699</v>
       </c>
-      <c r="G8" s="8">
+      <c r="N8" s="8">
         <v>36</v>
       </c>
-      <c r="H8" s="8" t="e">
-        <f>LOOKUP(I8,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O8" s="8" t="e">
+        <f>LOOKUP(P8,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="8">
         <v>607</v>
       </c>
-      <c r="K8" s="8">
-        <f>LOOKUP(L8,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="R8" s="8">
+        <f>LOOKUP(S8,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>44700</v>
+      </c>
+      <c r="F9" s="10">
+        <v>32</v>
+      </c>
+      <c r="G9" s="15">
+        <v>44694</v>
+      </c>
+      <c r="H9" s="10">
+        <v>608</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
         <v>44694</v>
       </c>
-      <c r="F9" s="15">
+      <c r="M9" s="15">
         <v>44700</v>
       </c>
-      <c r="G9" s="10">
+      <c r="N9" s="10">
         <v>32</v>
       </c>
-      <c r="H9" s="8" t="e">
-        <f>LOOKUP(I9,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O9" s="8" t="e">
+        <f>LOOKUP(P9,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10">
         <v>608</v>
       </c>
-      <c r="K9" s="8">
-        <f>LOOKUP(L9,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="R9" s="8">
+        <f>LOOKUP(S9,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>44702</v>
+      </c>
+      <c r="F10" s="8">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15">
+        <v>44696</v>
+      </c>
+      <c r="H10" s="8">
+        <v>609</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
         <v>44696</v>
       </c>
-      <c r="F10" s="15">
+      <c r="M10" s="15">
         <v>44702</v>
       </c>
-      <c r="G10" s="8">
+      <c r="N10" s="8">
         <v>34</v>
       </c>
-      <c r="H10" s="8">
-        <f>LOOKUP(I10,User!$E$2:$E$11,User!$A$2:$A$11)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="O10" s="8">
+        <f>LOOKUP(P10,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="8">
+      <c r="Q10" s="8">
         <v>609</v>
       </c>
-      <c r="K10" s="8">
-        <f>LOOKUP(L10,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="R10" s="8">
+        <f>LOOKUP(S10,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>44702</v>
+      </c>
+      <c r="F11" s="10">
+        <v>36</v>
+      </c>
+      <c r="G11" s="15">
+        <v>44696</v>
+      </c>
+      <c r="H11" s="10">
+        <v>610</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
         <v>44696</v>
       </c>
-      <c r="F11" s="15">
+      <c r="M11" s="15">
         <v>44702</v>
       </c>
-      <c r="G11" s="10">
+      <c r="N11" s="10">
         <v>36</v>
       </c>
-      <c r="H11" s="8">
-        <f>LOOKUP(I11,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O11" s="8">
+        <f>LOOKUP(P11,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>8</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="10">
+      <c r="Q11" s="10">
         <v>610</v>
       </c>
-      <c r="K11" s="8">
-        <f>LOOKUP(L11,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="R11" s="8">
+        <f>LOOKUP(S11,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>44693</v>
+      </c>
+      <c r="F12" s="8">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15">
+        <v>44687</v>
+      </c>
+      <c r="H12" s="8">
+        <v>601</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
         <v>44687</v>
       </c>
-      <c r="F12" s="15">
+      <c r="M12" s="15">
         <v>44693</v>
       </c>
-      <c r="G12" s="8">
+      <c r="N12" s="8">
         <v>25</v>
       </c>
-      <c r="H12" s="8" t="e">
-        <f>LOOKUP(I12,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O12" s="8" t="e">
+        <f>LOOKUP(P12,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="8">
         <v>601</v>
       </c>
-      <c r="K12" s="8">
-        <f>LOOKUP(L12,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L12" s="10" t="s">
+      <c r="R12" s="8">
+        <f>LOOKUP(S12,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>120</v>
+      <c r="C13">
+        <v>12</v>
       </c>
       <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>44693</v>
+      </c>
+      <c r="F13" s="10">
+        <v>20</v>
+      </c>
+      <c r="G13" s="15">
+        <v>44687</v>
+      </c>
+      <c r="H13" s="10">
+        <v>602</v>
+      </c>
+      <c r="I13" s="10">
         <v>15</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="10">
+        <v>15</v>
+      </c>
+      <c r="L13" s="15">
         <v>44687</v>
       </c>
-      <c r="F13" s="15">
+      <c r="M13" s="15">
         <v>44693</v>
       </c>
-      <c r="G13" s="10">
+      <c r="N13" s="10">
         <v>20</v>
       </c>
-      <c r="H13" s="8" t="e">
-        <f>LOOKUP(I13,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O13" s="8" t="e">
+        <f>LOOKUP(P13,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10">
         <v>602</v>
       </c>
-      <c r="K13" s="8">
-        <f>LOOKUP(L13,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="R13" s="8">
+        <f>LOOKUP(S13,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="10">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>128</v>
+      <c r="C14">
+        <v>13</v>
       </c>
       <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>44695</v>
+      </c>
+      <c r="F14" s="8">
+        <v>22</v>
+      </c>
+      <c r="G14" s="15">
+        <v>44689</v>
+      </c>
+      <c r="H14" s="8">
+        <v>603</v>
+      </c>
+      <c r="I14" s="10">
         <v>10</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="10">
+        <v>10</v>
+      </c>
+      <c r="L14" s="15">
         <v>44689</v>
       </c>
-      <c r="F14" s="15">
+      <c r="M14" s="15">
         <v>44695</v>
       </c>
-      <c r="G14" s="8">
+      <c r="N14" s="8">
         <v>22</v>
       </c>
-      <c r="H14" s="8">
-        <f>LOOKUP(I14,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O14" s="8">
+        <f>LOOKUP(P14,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>9</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8">
+      <c r="Q14" s="8">
         <v>603</v>
       </c>
-      <c r="K14" s="8">
-        <f>LOOKUP(L14,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="10" t="s">
+      <c r="R14" s="8">
+        <f>LOOKUP(S14,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="10">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>44695</v>
+      </c>
+      <c r="F15" s="10">
+        <v>24</v>
+      </c>
+      <c r="G15" s="15">
+        <v>44689</v>
+      </c>
+      <c r="H15" s="10">
+        <v>604</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="K15" s="10">
+        <v>2</v>
+      </c>
+      <c r="L15" s="15">
         <v>44689</v>
       </c>
-      <c r="F15" s="15">
+      <c r="M15" s="15">
         <v>44695</v>
       </c>
-      <c r="G15" s="10">
+      <c r="N15" s="10">
         <v>24</v>
       </c>
-      <c r="H15" s="8" t="e">
-        <f>LOOKUP(I15,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O15" s="8" t="e">
+        <f>LOOKUP(P15,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="10">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="10">
         <v>604</v>
       </c>
-      <c r="K15" s="8">
-        <f>LOOKUP(L15,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="R15" s="8">
+        <f>LOOKUP(S15,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>44697</v>
+      </c>
+      <c r="F16" s="8">
+        <v>25</v>
+      </c>
+      <c r="G16" s="15">
+        <v>44691</v>
+      </c>
+      <c r="H16" s="8">
+        <v>605</v>
+      </c>
+      <c r="I16" s="10">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="10">
+      <c r="K16" s="10">
         <v>10</v>
       </c>
-      <c r="E16" s="15">
+      <c r="L16" s="15">
         <v>44691</v>
       </c>
-      <c r="F16" s="15">
+      <c r="M16" s="15">
         <v>44697</v>
       </c>
-      <c r="G16" s="8">
+      <c r="N16" s="8">
         <v>25</v>
       </c>
-      <c r="H16" s="8" t="e">
-        <f>LOOKUP(I16,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O16" s="8" t="e">
+        <f>LOOKUP(P16,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="8">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="8">
         <v>605</v>
       </c>
-      <c r="K16" s="8">
-        <f>LOOKUP(L16,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="R16" s="8">
+        <f>LOOKUP(S16,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>44698</v>
+      </c>
+      <c r="F17" s="10">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15">
+        <v>44692</v>
+      </c>
+      <c r="H17" s="10">
+        <v>606</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
         <v>44692</v>
       </c>
-      <c r="F17" s="15">
+      <c r="M17" s="15">
         <v>44698</v>
       </c>
-      <c r="G17" s="10">
+      <c r="N17" s="10">
         <v>28</v>
       </c>
-      <c r="H17" s="8">
-        <f>LOOKUP(I17,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O17" s="8">
+        <f>LOOKUP(P17,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>7</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="10">
+      <c r="Q17" s="10">
         <v>606</v>
       </c>
-      <c r="K17" s="8">
-        <f>LOOKUP(L17,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="R17" s="8">
+        <f>LOOKUP(S17,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>44699</v>
+      </c>
+      <c r="F18" s="8">
+        <v>36</v>
+      </c>
+      <c r="G18" s="15">
+        <v>44693</v>
+      </c>
+      <c r="H18" s="8">
+        <v>607</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="15">
         <v>44693</v>
       </c>
-      <c r="F18" s="15">
+      <c r="M18" s="15">
         <v>44699</v>
       </c>
-      <c r="G18" s="8">
+      <c r="N18" s="8">
         <v>36</v>
       </c>
-      <c r="H18" s="8" t="e">
-        <f>LOOKUP(I18,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O18" s="8" t="e">
+        <f>LOOKUP(P18,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="8">
         <v>607</v>
       </c>
-      <c r="K18" s="8">
-        <f>LOOKUP(L18,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="R18" s="8">
+        <f>LOOKUP(S18,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="10">
         <v>8</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>44700</v>
+      </c>
+      <c r="F19" s="10">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15">
+        <v>44694</v>
+      </c>
+      <c r="H19" s="10">
+        <v>608</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
         <v>44694</v>
       </c>
-      <c r="F19" s="15">
+      <c r="M19" s="15">
         <v>44700</v>
       </c>
-      <c r="G19" s="10">
+      <c r="N19" s="10">
         <v>32</v>
       </c>
-      <c r="H19" s="8" t="e">
-        <f>LOOKUP(I19,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O19" s="8" t="e">
+        <f>LOOKUP(P19,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10">
         <v>608</v>
       </c>
-      <c r="K19" s="8">
-        <f>LOOKUP(L19,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="R19" s="8">
+        <f>LOOKUP(S19,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>44702</v>
+      </c>
+      <c r="F20" s="8">
+        <v>34</v>
+      </c>
+      <c r="G20" s="15">
+        <v>44696</v>
+      </c>
+      <c r="H20" s="8">
+        <v>609</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
         <v>44696</v>
       </c>
-      <c r="F20" s="15">
+      <c r="M20" s="15">
         <v>44702</v>
       </c>
-      <c r="G20" s="8">
+      <c r="N20" s="8">
         <v>34</v>
       </c>
-      <c r="H20" s="8">
-        <f>LOOKUP(I20,User!$E$2:$E$11,User!$A$2:$A$11)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="O20" s="8">
+        <f>LOOKUP(P20,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="8">
+      <c r="Q20" s="8">
         <v>609</v>
       </c>
-      <c r="K20" s="8">
-        <f>LOOKUP(L20,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="R20" s="8">
+        <f>LOOKUP(S20,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="10">
         <v>10</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>44702</v>
+      </c>
+      <c r="F21" s="10">
+        <v>36</v>
+      </c>
+      <c r="G21" s="15">
+        <v>44696</v>
+      </c>
+      <c r="H21" s="10">
+        <v>610</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="15">
         <v>44696</v>
       </c>
-      <c r="F21" s="15">
+      <c r="M21" s="15">
         <v>44702</v>
       </c>
-      <c r="G21" s="10">
+      <c r="N21" s="10">
         <v>36</v>
       </c>
-      <c r="H21" s="8">
-        <f>LOOKUP(I21,User!$E$2:$E$11,User!$A$2:$A$11)</f>
+      <c r="O21" s="8">
+        <f>LOOKUP(P21,User!$E$2:$E$11,User!$A$2:$A$11)</f>
         <v>8</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="10">
+      <c r="Q21" s="10">
         <v>610</v>
       </c>
-      <c r="K21" s="8">
-        <f>LOOKUP(L21,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="R21" s="8">
+        <f>LOOKUP(S21,idStatus!$B$2:$B$3,idStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="C23" s="17"/>
+    <row r="22" spans="1:19">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="E26" s="10">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="E27" s="10">
+        <v>4</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="E28" s="10">
+        <v>5</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="E29" s="10">
+        <v>6</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="E30" s="10">
+        <v>7</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="E31" s="10">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="E32" s="10">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="10">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="8">
+        <v>11</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="8">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="10">
+        <v>13</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="10">
+        <v>14</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="10">
+        <v>15</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" s="10">
+        <v>16</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" s="10">
+        <v>17</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" s="10">
+        <v>18</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42" s="10">
+        <v>19</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" s="10">
+        <v>20</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2803,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2811,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2877,77 +3484,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="17.375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="11.125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="17.375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -2956,100 +3557,106 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="5">
+        <v>123</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="5">
+        <f>LOOKUP(H2,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="5">
-        <v>123</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="I2" s="5">
+        <f>LOOKUP(J2,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="5">
+        <f>LOOKUP(L2,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5">
         <v>30</v>
       </c>
-      <c r="F2" s="5">
-        <f>LOOKUP(G2,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="5">
-        <f>LOOKUP(I2,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="5">
-        <f>LOOKUP(K2,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="5">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5">
-        <v>6</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="B3" s="5">
         <f>LOOKUP(C3,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="5">
+        <v>149</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="5">
+        <f>LOOKUP(H3,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="5">
-        <v>149</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="I3" s="5">
+        <f>LOOKUP(J3,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="5">
+        <f>LOOKUP(L3,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5">
         <v>15</v>
       </c>
-      <c r="F3" s="5">
-        <f>LOOKUP(G3,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="5">
-        <f>LOOKUP(I3,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="5">
-        <f>LOOKUP(K3,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
-        <v>7</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -3058,202 +3665,214 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="5">
+        <f>LOOKUP(H4,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="I4" s="5">
+        <f>LOOKUP(J4,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="5">
+        <f>LOOKUP(L4,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>15</v>
+      </c>
+      <c r="O4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
-        <f>LOOKUP(G4,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="5">
-        <f>LOOKUP(I4,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="5">
-        <f>LOOKUP(K4,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5">
-        <v>15</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="B5" s="5">
         <f>LOOKUP(C5,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="5">
         <v>86</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="5">
+        <f>LOOKUP(H5,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <f>LOOKUP(J5,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="5">
+        <f>LOOKUP(L5,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5">
+        <v>17</v>
+      </c>
+      <c r="O5" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
-        <f>LOOKUP(G5,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="5">
-        <f>LOOKUP(I5,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="5">
-        <f>LOOKUP(K5,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>17</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="5" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="B6" s="5">
         <f>LOOKUP(C6,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="5">
+        <v>102</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="5">
         <v>166</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="5">
+        <f>LOOKUP(H6,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="5">
+        <f>LOOKUP(J6,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="5">
+        <f>LOOKUP(L6,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>18</v>
+      </c>
+      <c r="O6" s="5">
         <v>15</v>
       </c>
-      <c r="F6" s="5">
-        <f>LOOKUP(G6,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="5">
-        <f>LOOKUP(I6,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="5">
-        <f>LOOKUP(K6,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5">
-        <v>18</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="5" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="B7" s="5">
         <f>LOOKUP(C7,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="5">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="5">
         <v>1700</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="5">
+        <f>LOOKUP(H7,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="5">
+        <f>LOOKUP(J7,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="5">
+        <f>LOOKUP(L7,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5">
         <v>25</v>
       </c>
-      <c r="F7" s="5">
-        <f>LOOKUP(G7,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="5">
-        <f>LOOKUP(I7,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="5">
-        <f>LOOKUP(K7,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="5">
-        <v>2</v>
-      </c>
-      <c r="M7" s="5">
-        <v>5</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -3262,100 +3881,106 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="5">
+        <v>300</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="5">
+        <f>LOOKUP(H8,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="5">
-        <v>300</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="I8" s="5">
+        <f>LOOKUP(J8,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="5">
+        <f>LOOKUP(L8,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>19</v>
+      </c>
+      <c r="O8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
-        <f>LOOKUP(G8,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="5">
-        <f>LOOKUP(I8,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="5">
-        <f>LOOKUP(K8,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5">
-        <v>19</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="5" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="B9" s="5">
         <f>LOOKUP(C9,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="5">
+        <v>199</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="5">
+        <f>LOOKUP(H9,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="5">
-        <v>199</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="I9" s="5">
+        <f>LOOKUP(J9,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="5">
+        <f>LOOKUP(L9,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="5">
-        <f>LOOKUP(G9,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+      <c r="N9" s="5">
+        <v>7</v>
+      </c>
+      <c r="O9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="5">
-        <f>LOOKUP(I9,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="5">
-        <f>LOOKUP(K9,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5">
-        <v>7</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -3364,149 +3989,158 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="5">
+        <v>234</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="5">
+        <f>LOOKUP(H10,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="5">
-        <v>234</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="I10" s="5">
+        <f>LOOKUP(J10,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="5">
+        <f>LOOKUP(L10,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>17</v>
+      </c>
+      <c r="O10" s="5">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
-        <f>LOOKUP(G10,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>7</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="5">
-        <f>LOOKUP(I10,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="5">
-        <f>LOOKUP(K10,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3</v>
-      </c>
-      <c r="M10" s="5">
-        <v>17</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="B11" s="5">
         <f>LOOKUP(C11,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="5">
+        <v>102</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="5">
         <v>170</v>
       </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
-        <f>LOOKUP(G11,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+      <c r="F11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="5">
+        <f>LOOKUP(H11,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="5">
-        <f>LOOKUP(I11,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="5">
-        <f>LOOKUP(K11,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5</v>
+      <c r="H11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="5">
+        <f>LOOKUP(J11,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="5">
+        <f>LOOKUP(L11,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="M11" s="5">
         <v>5</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="5">
+        <v>5</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
+      <c r="P11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="B12" s="5">
         <f>LOOKUP(C12,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="5">
+        <v>136</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="5">
         <v>600</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <f>LOOKUP(H12,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <f>LOOKUP(G12,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="5">
-        <f>LOOKUP(I12,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="5">
-        <f>LOOKUP(K12,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
+      <c r="H12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="5">
+        <f>LOOKUP(J12,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="5">
+        <f>LOOKUP(L12,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="M12" s="5">
         <v>5</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="N12" s="5">
+        <v>5</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10</v>
+      </c>
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -3515,243 +4149,258 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="5">
+        <v>136</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="5">
         <v>300</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <f>LOOKUP(H13,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="5">
+        <f>LOOKUP(J13,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="5">
+        <f>LOOKUP(L13,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+      <c r="N13" s="5">
         <v>15</v>
       </c>
-      <c r="F13" s="5">
-        <f>LOOKUP(G13,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="5">
-        <f>LOOKUP(I13,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="5">
-        <f>LOOKUP(K13,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="O13" s="5">
         <v>15</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="B14" s="5">
         <f>LOOKUP(C14,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="5">
+        <v>115</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="5">
         <v>4100</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <f>LOOKUP(H14,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="5">
+        <f>LOOKUP(J14,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="5">
+        <f>LOOKUP(L14,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="5">
+        <v>4</v>
+      </c>
+      <c r="N14" s="5">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
         <v>30</v>
       </c>
-      <c r="F14" s="5">
-        <f>LOOKUP(G14,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="5">
-        <f>LOOKUP(I14,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="5">
-        <f>LOOKUP(K14,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="5">
-        <v>4</v>
-      </c>
-      <c r="M14" s="5">
-        <v>9</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="P14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="B15" s="5">
         <f>LOOKUP(C15,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="5">
+        <v>140</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5">
         <v>385</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <f>LOOKUP(H15,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="5">
-        <f>LOOKUP(G15,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+      <c r="H15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="5">
+        <f>LOOKUP(J15,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="5">
+        <f>LOOKUP(L15,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2</v>
+      </c>
+      <c r="N15" s="5">
+        <v>17</v>
+      </c>
+      <c r="O15" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="5">
-        <f>LOOKUP(I15,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="5">
-        <f>LOOKUP(K15,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2</v>
-      </c>
-      <c r="M15" s="5">
-        <v>17</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="P15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="B16" s="5">
         <f>LOOKUP(C16,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="5">
+        <v>115</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="5">
         <v>280</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <f>LOOKUP(H16,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="5">
+        <f>LOOKUP(J16,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="5">
+        <f>LOOKUP(L16,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5">
+        <v>8</v>
+      </c>
+      <c r="O16" s="5">
         <v>15</v>
       </c>
-      <c r="F16" s="5">
-        <f>LOOKUP(G16,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="5">
-        <f>LOOKUP(I16,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="5">
-        <f>LOOKUP(K16,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="5">
-        <v>3</v>
-      </c>
-      <c r="M16" s="5">
-        <v>8</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="P16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="B17" s="5">
         <f>LOOKUP(C17,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="5">
+        <v>115</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="5">
         <v>1700</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <f>LOOKUP(H17,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="5">
+        <f>LOOKUP(J17,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="5">
+        <f>LOOKUP(L17,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+      <c r="N17" s="5">
+        <v>9</v>
+      </c>
+      <c r="O17" s="5">
         <v>25</v>
       </c>
-      <c r="F17" s="5">
-        <f>LOOKUP(G17,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="5">
-        <f>LOOKUP(I17,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="5">
-        <f>LOOKUP(K17,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="5">
-        <v>4</v>
-      </c>
-      <c r="M17" s="5">
-        <v>9</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -3760,194 +4409,206 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="5">
+        <v>136</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="5">
         <v>510</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <f>LOOKUP(H18,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="5">
+        <f>LOOKUP(J18,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="5">
+        <f>LOOKUP(L18,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2</v>
+      </c>
+      <c r="N18" s="5">
+        <v>17</v>
+      </c>
+      <c r="O18" s="5">
         <v>5</v>
       </c>
-      <c r="F18" s="5">
-        <f>LOOKUP(G18,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="5">
-        <f>LOOKUP(I18,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" s="5">
-        <f>LOOKUP(K18,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="5">
-        <v>2</v>
-      </c>
-      <c r="M18" s="5">
-        <v>17</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="P18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="B19" s="5">
         <f>LOOKUP(C19,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="5">
+        <v>136</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="5">
         <v>510</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <f>LOOKUP(H19,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="5">
+        <f>LOOKUP(J19,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="5">
+        <f>LOOKUP(L19,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>17</v>
+      </c>
+      <c r="O19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="5">
-        <f>LOOKUP(G19,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="5">
-        <f>LOOKUP(I19,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="5">
-        <f>LOOKUP(K19,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="5">
-        <v>2</v>
-      </c>
-      <c r="M19" s="5">
-        <v>17</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="P19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="B20" s="5">
         <f>LOOKUP(C20,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2190</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <f>LOOKUP(H20,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="5">
-        <v>2190</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="I20" s="5">
+        <f>LOOKUP(J20,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="5">
+        <f>LOOKUP(L20,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="5">
+        <v>4</v>
+      </c>
+      <c r="N20" s="5">
+        <v>7</v>
+      </c>
+      <c r="O20" s="5">
         <v>30</v>
       </c>
-      <c r="F20" s="5">
-        <f>LOOKUP(G20,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="5">
-        <f>LOOKUP(I20,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="5">
-        <f>LOOKUP(K20,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="5">
-        <v>4</v>
-      </c>
-      <c r="M20" s="5">
-        <v>7</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="P20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="B21" s="5">
         <f>LOOKUP(C21,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="5">
+        <v>102</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="5">
         <v>177</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <f>LOOKUP(H21,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="5">
+        <f>LOOKUP(J21,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="5">
+        <f>LOOKUP(L21,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3</v>
+      </c>
+      <c r="N21" s="5">
         <v>15</v>
       </c>
-      <c r="F21" s="5">
-        <f>LOOKUP(G21,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="5">
-        <f>LOOKUP(I21,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="5">
-        <f>LOOKUP(K21,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="5">
-        <v>3</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="O21" s="5">
         <v>15</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -3956,47 +4617,50 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="5">
+        <v>131</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="5">
         <v>100</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <f>LOOKUP(H22,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="5">
+        <f>LOOKUP(J22,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="5">
+        <f>LOOKUP(L22,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4</v>
+      </c>
+      <c r="N22" s="5">
+        <v>21</v>
+      </c>
+      <c r="O22" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="5">
-        <f>LOOKUP(G22,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="5">
-        <f>LOOKUP(I22,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="5">
-        <f>LOOKUP(K22,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" s="5">
-        <v>4</v>
-      </c>
-      <c r="M22" s="5">
-        <v>21</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
@@ -4005,341 +4669,362 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="5">
+        <v>136</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="5">
         <v>640</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <f>LOOKUP(H23,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="5">
+        <f>LOOKUP(J23,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="5">
+        <f>LOOKUP(L23,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="5">
         <v>5</v>
       </c>
-      <c r="F23" s="5">
-        <f>LOOKUP(G23,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="5">
-        <f>LOOKUP(I23,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="5">
-        <f>LOOKUP(K23,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="N23" s="5">
+        <v>4</v>
+      </c>
+      <c r="O23" s="5">
         <v>5</v>
       </c>
-      <c r="M23" s="5">
-        <v>4</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="P23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="B24" s="5">
         <f>LOOKUP(C24,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="5">
+        <v>800</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <f>LOOKUP(H24,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="5">
-        <v>800</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="I24" s="5">
+        <f>LOOKUP(J24,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="5">
+        <f>LOOKUP(L24,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>17</v>
+      </c>
+      <c r="O24" s="5">
         <v>25</v>
       </c>
-      <c r="F24" s="5">
-        <f>LOOKUP(G24,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>13</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="5">
-        <f>LOOKUP(I24,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="5">
-        <f>LOOKUP(K24,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L24" s="5">
-        <v>2</v>
-      </c>
-      <c r="M24" s="5">
-        <v>17</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="P24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="B25" s="5">
         <f>LOOKUP(C25,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>3500</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <f>LOOKUP(H25,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="5">
+        <f>LOOKUP(J25,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="5">
+        <f>LOOKUP(L25,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3</v>
+      </c>
+      <c r="O25" s="5">
         <v>30</v>
       </c>
-      <c r="F25" s="5">
-        <f>LOOKUP(G25,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="5">
-        <f>LOOKUP(I25,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="5">
-        <f>LOOKUP(K25,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="5">
-        <v>5</v>
-      </c>
-      <c r="M25" s="5">
-        <v>3</v>
-      </c>
-      <c r="N25" s="5" t="s">
+      <c r="P25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="B26" s="5">
         <f>LOOKUP(C26,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="5">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="5">
         <v>400</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <f>LOOKUP(H26,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="5">
+        <f>LOOKUP(J26,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="5">
+        <f>LOOKUP(L26,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="5">
+        <v>4</v>
+      </c>
+      <c r="N26" s="5">
+        <v>5</v>
+      </c>
+      <c r="O26" s="5">
         <v>15</v>
       </c>
-      <c r="F26" s="5">
-        <f>LOOKUP(G26,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="5">
-        <f>LOOKUP(I26,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="5">
-        <f>LOOKUP(K26,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" s="5">
-        <v>4</v>
-      </c>
-      <c r="M26" s="5">
-        <v>5</v>
-      </c>
-      <c r="N26" s="5" t="s">
+      <c r="P26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="B27" s="5">
         <f>LOOKUP(C27,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="5">
+        <v>140</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="5">
         <v>292</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <f>LOOKUP(H27,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="5">
+        <f>LOOKUP(J27,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="5">
+        <f>LOOKUP(L27,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="5">
+        <v>3</v>
+      </c>
+      <c r="N27" s="5">
+        <v>13</v>
+      </c>
+      <c r="O27" s="5">
         <v>25</v>
       </c>
-      <c r="F27" s="5">
-        <f>LOOKUP(G27,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="5">
-        <f>LOOKUP(I27,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="5">
-        <f>LOOKUP(K27,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="5">
-        <v>3</v>
-      </c>
-      <c r="M27" s="5">
-        <v>13</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="P27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="B28" s="5">
         <f>LOOKUP(C28,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="5">
+        <v>131</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="5">
         <v>600</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <f>LOOKUP(H28,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>11</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="5">
+        <f>LOOKUP(J28,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="5">
+        <f>LOOKUP(L28,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>16</v>
+      </c>
+      <c r="O28" s="5">
         <v>15</v>
       </c>
-      <c r="F28" s="5">
-        <f>LOOKUP(G28,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>11</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" s="5">
-        <f>LOOKUP(I28,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="5">
-        <f>LOOKUP(K28,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="5">
-        <v>2</v>
-      </c>
-      <c r="M28" s="5">
-        <v>16</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="P28" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="B29" s="5">
         <f>LOOKUP(C29,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="5">
+        <v>102</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="5">
         <v>140</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <f>LOOKUP(H29,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="5">
+        <f>LOOKUP(J29,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="5">
+        <f>LOOKUP(L29,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="5">
+        <v>3</v>
+      </c>
+      <c r="N29" s="5">
+        <v>19</v>
+      </c>
+      <c r="O29" s="5">
         <v>20</v>
       </c>
-      <c r="F29" s="5">
-        <f>LOOKUP(G29,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="5">
-        <f>LOOKUP(I29,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="5">
-        <f>LOOKUP(K29,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="5">
-        <v>3</v>
-      </c>
-      <c r="M29" s="5">
-        <v>19</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
         <v>91</v>
       </c>
@@ -4348,94 +5033,100 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="5">
+        <v>102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="5">
         <v>50</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <f>LOOKUP(H30,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="5">
+        <f>LOOKUP(J30,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="5">
+        <f>LOOKUP(L30,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="5">
+        <v>4</v>
+      </c>
+      <c r="N30" s="5">
+        <v>6</v>
+      </c>
+      <c r="O30" s="5">
         <v>5</v>
       </c>
-      <c r="F30" s="5">
-        <f>LOOKUP(G30,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="5">
-        <f>LOOKUP(I30,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="5">
-        <f>LOOKUP(K30,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L30" s="5">
-        <v>4</v>
-      </c>
-      <c r="M30" s="5">
-        <v>6</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="P30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="B31" s="5">
         <f>LOOKUP(C31,idProductName!$B$2:$B$9,idProductName!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="5">
+        <v>115</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="5">
         <v>600</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <f>LOOKUP(H31,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="5">
+        <f>LOOKUP(J31,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="5">
+        <f>LOOKUP(L31,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="5">
+        <v>5</v>
+      </c>
+      <c r="N31" s="5">
         <v>15</v>
       </c>
-      <c r="F31" s="5">
-        <f>LOOKUP(G31,idManufacturer!$B$2:$B$14,idManufacturer!$A$2:$A$14)</f>
-        <v>3</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="5">
-        <f>LOOKUP(I31,idPost!$B$2:$B$3,idPost!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="5">
-        <f>LOOKUP(K31,idCategory!$B$2:$B$4,idCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L31" s="5">
-        <v>5</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="O31" s="5">
         <v>15</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="O31" s="5"/>
+      <c r="P31" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,7 +5138,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4480,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5358,7 +6049,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5381,7 +6072,7 @@
   <dimension ref="A2:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
